--- a/楼盘积累对比170721.xlsx
+++ b/楼盘积累对比170721.xlsx
@@ -23,6 +23,205 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>楼盘名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华科南三门对面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月加推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交房时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021，太晚不可靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计19000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88平左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛悦城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小开发商 茶水费 难抢到房子，交房时间超级晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝业光谷丽都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财大往南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月加推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期13000-16000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89左右两房 140平的三室两卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利时代</t>
+  </si>
+  <si>
+    <t>新竹路与关山大道交叉口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵 小户型 小两居 可以接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能买这个最好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80-90小户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7W*90=153W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17000以内都可以接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像还可以的样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看三期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址位置B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期还有现房 八月加推 三期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期现房140平*1.6W总价高200W了，两居户型太差，都成一局了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵  交房时间太晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泓博朗诗悦府</t>
+  </si>
+  <si>
+    <t>地铁站 江岸区 二七长江大桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月初开盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市民之家有公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵 有装修绑定价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、5号楼建面约97、104、112平米非毛坯三房，97平户型不好 104平户型可以 104两个卫生间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月加推开盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理位置A+ 有地铁站 离光谷很近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理位置A-离光谷近，有毒地一说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
@@ -42,19 +241,74 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -64,9 +318,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -348,13 +620,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/楼盘积累对比170721.xlsx
+++ b/楼盘积累对比170721.xlsx
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贵 小户型 小两居 可以接受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能买这个最好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +213,10 @@
   </si>
   <si>
     <t>地理位置A-离光谷近，有毒地一说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵 小户型 小两居 可以接受 听说有高压线 需要实地核查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +623,7 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,10 +673,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="57" x14ac:dyDescent="0.2">
@@ -690,10 +690,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
@@ -723,10 +723,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>22</v>
@@ -735,14 +735,14 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -756,32 +756,32 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -802,23 +802,23 @@
     </row>
     <row r="5" spans="1:29" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/楼盘积累对比170721.xlsx
+++ b/楼盘积累对比170721.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>楼盘名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,7 +216,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贵 小户型 小两居 可以接受 听说有高压线 需要实地核查</t>
+    <t>保利新武昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年9月或10月推出二期11、12#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理位置B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、贵 2、小户型 小两居 可以接受 3、听说有高压线 需要实地核查4、认筹金交40W，交了认筹金之后不能贷款，要全款，也绑定装许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三环之内白沙洲大道附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近感觉有点杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期11、12#预计2017年10月推出，建面约96、101、108、129平户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一期的96三室两厅一卫 108三室两厅两卫的户型非常不错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,7 +667,8 @@
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -747,7 +783,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="6" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -759,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>26</v>
@@ -827,6 +863,37 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
+    <row r="6" spans="1:29" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/楼盘积累对比170721.xlsx
+++ b/楼盘积累对比170721.xlsx
@@ -372,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,7 +658,7 @@
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>

--- a/楼盘积累对比170721.xlsx
+++ b/楼盘积累对比170721.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>楼盘名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,42 @@
   </si>
   <si>
     <t>一期的96三室两厅一卫 108三室两厅两卫的户型非常不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融创观澜壹号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三环外靠近三环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏僻三环之外 6号线终点站之外 周围有湖 环湖路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计8月份开盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95左右的户型不错 三室一厅一卫 105平的南北通透 三室两卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格在1.3-1.4w精装修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -864,34 +903,67 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/楼盘积累对比170721.xlsx
+++ b/楼盘积累对比170721.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>楼盘名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三环之内白沙洲大道附近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附近感觉有点杂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,6 +281,33 @@
   </si>
   <si>
     <t>158W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利上城</t>
+  </si>
+  <si>
+    <t>二期口碑极差各种卖指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期户型有很多差户型 手枪户型 但是还是有几个三室两厅一卫的户型不错可以考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三环之内白沙洲大道附近 附近地质有问题 发生了坍塌事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白沙洲临近保利新武昌 附近地质有问题 发生了坍塌事故</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,171 +717,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="21.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:30" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:30" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:30" s="6" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -874,97 +908,135 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:30" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:30" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
